--- a/Xports/UD_French-Sequoia/VERB-no-obj.xlsx
+++ b/Xports/UD_French-Sequoia/VERB-no-obj.xlsx
@@ -25426,7 +25426,7 @@
         <v>2441</v>
       </c>
       <c r="O373">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="374" spans="1:15">
